--- a/0_input/0_drop_list.xlsx
+++ b/0_input/0_drop_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,8 +514,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NVCN</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -532,8 +534,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INPX</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -550,8 +554,10 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BRH.DE</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -851,6 +857,70 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Canada</t>
         </is>
       </c>
     </row>

--- a/0_input/0_drop_list.xlsx
+++ b/0_input/0_drop_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,6 +924,150 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mongolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Isle of Man</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/0_input/0_drop_list.xlsx
+++ b/0_input/0_drop_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,8 +739,10 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>REIT—Mortgage</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -936,7 +938,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Guernsey</t>
         </is>
       </c>
     </row>
@@ -952,7 +954,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
@@ -968,7 +970,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
     </row>
@@ -984,7 +986,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Reunion</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1002,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Jordan</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1018,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1034,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Isle of Man</t>
+          <t>Malaysia</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1050,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1066,183 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Mongolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Isle of Man</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Finland</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
